--- a/approaches/agora_data/our_ground_truth/Hotel Search/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Hotel Search/response_property_constraints.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Hotel Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6BCEF4-974A-4B4C-9910-D49922D1BCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A6E8FD-90D1-4935-B28C-8FEC18C06C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1695" windowWidth="23235" windowHeight="13785"/>
+    <workbookView xWindow="14940" yWindow="1020" windowWidth="11625" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
   <si>
     <t>operation</t>
   </si>
@@ -283,11 +283,87 @@
   <si>
     <t>Longitude schema: {"type": "number"} schema: {"type": "number"}</t>
   </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>Represents the deadline after which the penalty applies. DateTime is in ISO 8601 [https://www.w3.org/TR/NOTE-datetime].
+Example: 2010-08-14T12:00:00+01:00
+Example: 2010-08-14T12:00:00Z
+Example: 2010-08-14T12:00:00-01:00
+The value is expressed in the hotel local time zone, with the added time zone difference. So you can compute the deadline in UTC(GMT</t>
+  </si>
+  <si>
+    <t>Percentage of the total stay amount to be paid in case of cancellation. Value is between 0 and 100</t>
+  </si>
+  <si>
+    <t>HotelProduct_HoldPolicy</t>
+  </si>
+  <si>
+    <t>The date and time of the deadline in ISO 8601[https://www.w3.org/TR/NOTE-datetime]. 
+ Example: 2010-08-14T13:00:00
+ Please note that this value is expressed in the hotels local time zone</t>
+  </si>
+  <si>
+    <t>Markup</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Defines the monetary value with decimal position as a String, schema: {"type": "string", "example": "10"}</t>
+  </si>
+  <si>
+    <t>Defines amount with decimal separator</t>
+  </si>
+  <si>
+    <t>pricingMode</t>
+  </si>
+  <si>
+    <t>Specifies if the tax applies per occupant or per room
+  - PER_OCCUPANT
+  - PER_PRODUCT</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>currency Code apply to all elements of the price</t>
+  </si>
+  <si>
+    <t>sellingTotal = Total + margins + markup + totalFees - discounts</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>A self link to the object. Use this to refresh the Offer price, schema: {"type": "string", "example": "https://test.travel.api.amadeus.com/v2/shopping/hotel-offers/63A93695B58821ABB0EC2B33FE9FAB24D72BF34B1BD7D707293763D8D9378FC3"}</t>
+  </si>
+  <si>
+    <t>HotelOffers</t>
+  </si>
+  <si>
+    <t>the type of the object (hotel-offers</t>
+  </si>
+  <si>
+    <t>HotelProduct_DepositPolicy</t>
+  </si>
+  <si>
+    <t>In the case of a tax on TST value, the percentage of the tax will be indicated in this field</t>
+  </si>
+  <si>
+    <t>pricingFrequency</t>
+  </si>
+  <si>
+    <t>Specifies if the tax applies per stay or per night
+  - PER_STAY
+  - PER_NIGHT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1124,12 +1200,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1593,6 +1674,216 @@
         <v>76</v>
       </c>
     </row>
+    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
